--- a/Escala_Processada.xlsx
+++ b/Escala_Processada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PESSOAL\Desktop\AutoEscala\CodFontAutoEscala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D47ADA5-76ED-4C98-94BF-4ADC7B3254CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD1AD8D-260F-4D29-9C3C-DF8584562C8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Escala_Processada.xlsx
+++ b/Escala_Processada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PESSOAL\Desktop\AutoEscala\CodFontAutoEscala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD1AD8D-260F-4D29-9C3C-DF8584562C8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2B059F-01EE-4781-877A-82E0DDB04BA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="97">
   <si>
     <t>Funcao</t>
   </si>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,8 +1289,8 @@
       <c r="M8" t="s">
         <v>4</v>
       </c>
-      <c r="O8">
-        <v>0</v>
+      <c r="O8" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" t="s">
         <v>4</v>

--- a/Escala_Processada.xlsx
+++ b/Escala_Processada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PESSOAL\Desktop\AutoEscala\CodFontAutoEscala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2B059F-01EE-4781-877A-82E0DDB04BA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C65923-C82A-4D21-9786-ECB235B79288}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="555" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -729,7 +729,7 @@
   <dimension ref="A1:AH32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
